--- a/biology/Biochimie/Tris/Tris.xlsx
+++ b/biology/Biochimie/Tris/Tris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tris (prononcé "trisse") est l'abréviation courante de tris(hydroxyméthyl)aminométhane, ou THAM et 2-amino-2-hydroxyméthylpropane-1,3-diol selon la nomenclature chimique internationale. Il est largement utilisé comme solution tampon en biochimie, particulièrement pour travailler avec des acides nucléiques avec un intervalle de pH entre 6,5 et 9,7. Le tris possède des protons labiles, avec un pKa de 8,30 (à 20 °C; le pKa diminue ensuite de 0.03 unités par l'élévation (d'un) 1 degré Celsius de température).
@@ -512,11 +524,48 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le tris est utilisé comme intermédiaire pour la préparation d'agents de surface actifs, accélérateur de la vulcanisation, pour la préparation d'agents pharmaceutiques, ou comme standard titrimétrique. 
-Désavantages
-La dissociation est affectée par la température (cf. supra)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tris est utilisé comme intermédiaire pour la préparation d'agents de surface actifs, accélérateur de la vulcanisation, pour la préparation d'agents pharmaceutiques, ou comme standard titrimétrique. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tris</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tris</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Désavantages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La dissociation est affectée par la température (cf. supra)
 Toxique pour les cellules de mammifères
 Forte réaction avec les électrodes mesurant le pH
 Forte réaction avec les amines primaires</t>
